--- a/data/trans_orig/P2A_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P2A_R-Provincia-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>117659</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>102044</v>
+        <v>99005</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>134389</v>
+        <v>133083</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4309688725679438</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3737751651237597</v>
+        <v>0.3626424544086294</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4922481619382068</v>
+        <v>0.4874653964246101</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>129</v>
@@ -765,19 +765,19 @@
         <v>136144</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>119510</v>
+        <v>118599</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>153010</v>
+        <v>152926</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.5219479138702625</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4581756980785948</v>
+        <v>0.4546858532975044</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5866080882135875</v>
+        <v>0.5862865051363864</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>249</v>
@@ -786,19 +786,19 @@
         <v>253803</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>230036</v>
+        <v>229288</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>280003</v>
+        <v>274806</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4754212224590553</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4309024543270299</v>
+        <v>0.4295004181580051</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5245004093691542</v>
+        <v>0.5147642529319969</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>155351</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>138621</v>
+        <v>139927</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>170966</v>
+        <v>174005</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.5690311274320562</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.5077518380617934</v>
+        <v>0.5125346035753898</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.6262248348762404</v>
+        <v>0.6373575455913706</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>116</v>
@@ -836,19 +836,19 @@
         <v>124694</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>107828</v>
+        <v>107912</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>141328</v>
+        <v>142239</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.4780520861297375</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.4133919117864128</v>
+        <v>0.4137134948636136</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.5418243019214053</v>
+        <v>0.5453141467024957</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>267</v>
@@ -857,19 +857,19 @@
         <v>280045</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>253845</v>
+        <v>259042</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>303812</v>
+        <v>304560</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.5245787775409446</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.4754995906308458</v>
+        <v>0.4852357470680033</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.5690975456729701</v>
+        <v>0.5704995818419949</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>230589</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>207124</v>
+        <v>208855</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>254608</v>
+        <v>255063</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.4676543315986343</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.4200658916574891</v>
+        <v>0.4235774487317133</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.5163678752085035</v>
+        <v>0.5172903707131405</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>327</v>
@@ -982,19 +982,19 @@
         <v>330257</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>307411</v>
+        <v>307486</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>351671</v>
+        <v>350110</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.6553376659620702</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.6100050443549475</v>
+        <v>0.6101538278978069</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.6978312306135663</v>
+        <v>0.6947327801135761</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>543</v>
@@ -1003,19 +1003,19 @@
         <v>560845</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>529680</v>
+        <v>530098</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>590426</v>
+        <v>593596</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.5625194740997335</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.5312613066236564</v>
+        <v>0.5316798538919988</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.5921881973692422</v>
+        <v>0.5953677471370895</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>262486</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>238467</v>
+        <v>238012</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>285951</v>
+        <v>284220</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.5323456684013657</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.4836321247914961</v>
+        <v>0.4827096292868596</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.5799341083425104</v>
+        <v>0.5764225512682867</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>172</v>
@@ -1053,19 +1053,19 @@
         <v>173692</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>152278</v>
+        <v>153839</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>196538</v>
+        <v>196463</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.3446623340379298</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.3021687693864336</v>
+        <v>0.3052672198864239</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3899949556450524</v>
+        <v>0.389846172102193</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>421</v>
@@ -1074,19 +1074,19 @@
         <v>436179</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>406598</v>
+        <v>403428</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>467344</v>
+        <v>466926</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.4374805259002665</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.4078118026307578</v>
+        <v>0.4046322528629105</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.4687386933763436</v>
+        <v>0.4683201461080013</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>142433</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>125431</v>
+        <v>126127</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>161285</v>
+        <v>161411</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.446713564231945</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3933914850123917</v>
+        <v>0.3955734214024715</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.5058411104105875</v>
+        <v>0.5062358581534484</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>228</v>
@@ -1199,19 +1199,19 @@
         <v>228366</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>210955</v>
+        <v>211780</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>245851</v>
+        <v>246634</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.6808535143998118</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.6289427258467839</v>
+        <v>0.6314036110935537</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.7329814642120626</v>
+        <v>0.7353158046559976</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>368</v>
@@ -1220,19 +1220,19 @@
         <v>370799</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>343160</v>
+        <v>348229</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>394230</v>
+        <v>396495</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.5667478011937495</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.524502355294411</v>
+        <v>0.532250337028374</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.6025606599619788</v>
+        <v>0.6060223903902318</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>176413</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>157561</v>
+        <v>157435</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>193415</v>
+        <v>192719</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.5532864357680549</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.4941588895894126</v>
+        <v>0.4937641418465518</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.6066085149876084</v>
+        <v>0.6044265785975287</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>107</v>
@@ -1270,19 +1270,19 @@
         <v>107046</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>89561</v>
+        <v>88778</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>124457</v>
+        <v>123632</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.3191464856001883</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2670185357879374</v>
+        <v>0.2646841953440024</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.371057274153216</v>
+        <v>0.3685963889064464</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>277</v>
@@ -1291,19 +1291,19 @@
         <v>283459</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>260028</v>
+        <v>257763</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>311098</v>
+        <v>306029</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.4332521988062505</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.3974393400380211</v>
+        <v>0.3939776096097681</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.4754976447055888</v>
+        <v>0.4677496629716258</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>186074</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>168443</v>
+        <v>166037</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>206016</v>
+        <v>203296</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.5187861125346794</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.4696319645574367</v>
+        <v>0.462923659363961</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.5743862184204429</v>
+        <v>0.5668042290567339</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>267</v>
@@ -1416,19 +1416,19 @@
         <v>258329</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>241262</v>
+        <v>240690</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>276472</v>
+        <v>274962</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.6954498861136861</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.6495043361673435</v>
+        <v>0.6479636440093322</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.7442930922555188</v>
+        <v>0.7402274535261194</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>458</v>
@@ -1437,19 +1437,19 @@
         <v>444403</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>417233</v>
+        <v>418816</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>470120</v>
+        <v>471351</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.6086647303337371</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.5714529758804596</v>
+        <v>0.573620493720426</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.6438875680804811</v>
+        <v>0.6455739217039764</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>172597</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>152655</v>
+        <v>155375</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>190228</v>
+        <v>192634</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.4812138874653205</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4256137815795572</v>
+        <v>0.4331957709432661</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5303680354425633</v>
+        <v>0.5370763406360389</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>117</v>
@@ -1487,19 +1487,19 @@
         <v>113127</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>94984</v>
+        <v>96494</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>130194</v>
+        <v>130766</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.3045501138863139</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2557069077444812</v>
+        <v>0.2597725464738807</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3504956638326566</v>
+        <v>0.3520363559906681</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>288</v>
@@ -1508,19 +1508,19 @@
         <v>285724</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>260007</v>
+        <v>258776</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>312894</v>
+        <v>311311</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.3913352696662629</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.356112431919519</v>
+        <v>0.3544260782960236</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4285470241195404</v>
+        <v>0.4263795062795739</v>
       </c>
     </row>
     <row r="15">
@@ -1612,7 +1612,7 @@
         <v>101272</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>87791</v>
+        <v>87483</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>115574</v>
@@ -1621,10 +1621,10 @@
         <v>0.4981220907555997</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.4318152661770276</v>
+        <v>0.4302970603639882</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.5684655308918449</v>
+        <v>0.5684663043629844</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>131</v>
@@ -1633,19 +1633,19 @@
         <v>136854</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>122269</v>
+        <v>122721</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>149672</v>
+        <v>151031</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.6590031892468887</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.5887730869507107</v>
+        <v>0.590949516472398</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.7207295449352357</v>
+        <v>0.72727315238076</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>238</v>
@@ -1654,19 +1654,19 @@
         <v>238126</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>217806</v>
+        <v>218040</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>259087</v>
+        <v>256822</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.5794160160021986</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.5299732020802601</v>
+        <v>0.530541971775481</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.6304181956910632</v>
+        <v>0.6249068142062111</v>
       </c>
     </row>
     <row r="17">
@@ -1686,16 +1686,16 @@
         <v>87734</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>115517</v>
+        <v>115825</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.5018779092444003</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.4315344691081551</v>
+        <v>0.4315336956370156</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.5681847338229726</v>
+        <v>0.5697029396360118</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>67</v>
@@ -1704,19 +1704,19 @@
         <v>70814</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>57996</v>
+        <v>56637</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>85399</v>
+        <v>84947</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3409968107531113</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2792704550647643</v>
+        <v>0.2727268476192402</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.4112269130492893</v>
+        <v>0.4090504835276021</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>166</v>
@@ -1725,19 +1725,19 @@
         <v>172850</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>151889</v>
+        <v>154154</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>193170</v>
+        <v>192936</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.4205839839978014</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.3695818043089369</v>
+        <v>0.375093185793789</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.47002679791974</v>
+        <v>0.4694580282245191</v>
       </c>
     </row>
     <row r="18">
@@ -1829,19 +1829,19 @@
         <v>137685</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>120836</v>
+        <v>121906</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>153358</v>
+        <v>154526</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.5084190065325378</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.4462011165549318</v>
+        <v>0.4501499422846004</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.5662921735467565</v>
+        <v>0.5706063995956488</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>175</v>
@@ -1850,19 +1850,19 @@
         <v>179524</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>163355</v>
+        <v>163381</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>194873</v>
+        <v>196517</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.6454357092174017</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.5873047889902403</v>
+        <v>0.5873986144181839</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.7006207834707605</v>
+        <v>0.7065287918226044</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>313</v>
@@ -1871,19 +1871,19 @@
         <v>317210</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>294070</v>
+        <v>290606</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>339177</v>
+        <v>338205</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.5778424993034511</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.5356904444133128</v>
+        <v>0.5293808287522466</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.6178596330909247</v>
+        <v>0.6160884414164784</v>
       </c>
     </row>
     <row r="20">
@@ -1900,19 +1900,19 @@
         <v>133126</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>117453</v>
+        <v>116285</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>149975</v>
+        <v>148905</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.4915809934674623</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.4337078264532436</v>
+        <v>0.4293936004043512</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.5537988834450683</v>
+        <v>0.5498500577153996</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>95</v>
@@ -1921,19 +1921,19 @@
         <v>98620</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>83271</v>
+        <v>81627</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>114789</v>
+        <v>114763</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.3545642907825983</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2993792165292394</v>
+        <v>0.2934712081773962</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.4126952110097597</v>
+        <v>0.4126013855818162</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>223</v>
@@ -1942,19 +1942,19 @@
         <v>231745</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>209778</v>
+        <v>210750</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>254885</v>
+        <v>258349</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.4221575006965488</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.3821403669090752</v>
+        <v>0.3839115585835216</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.4643095555866872</v>
+        <v>0.4706191712477533</v>
       </c>
     </row>
     <row r="21">
@@ -2046,19 +2046,19 @@
         <v>280644</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>255676</v>
+        <v>255171</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>304583</v>
+        <v>305794</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.4563116873709393</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.4157148607723342</v>
+        <v>0.4148934806279683</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.4952355664888335</v>
+        <v>0.4972038560266375</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>383</v>
@@ -2067,19 +2067,19 @@
         <v>391723</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>368901</v>
+        <v>365666</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>415433</v>
+        <v>415629</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.6137749459883455</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.5780160964943118</v>
+        <v>0.572946769828404</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.6509260599856641</v>
+        <v>0.6512318342309555</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>663</v>
@@ -2088,19 +2088,19 @@
         <v>672367</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>634573</v>
+        <v>634919</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>708877</v>
+        <v>710837</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.5365002904883448</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.5063437498994986</v>
+        <v>0.5066195308042792</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.565632615948845</v>
+        <v>0.5671964698933623</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>334383</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>310444</v>
+        <v>309233</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>359351</v>
+        <v>359856</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.5436883126290607</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.5047644335111663</v>
+        <v>0.5027961439733627</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.5842851392276657</v>
+        <v>0.5851065193720317</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>238</v>
@@ -2138,19 +2138,19 @@
         <v>246496</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>222786</v>
+        <v>222590</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>269318</v>
+        <v>272553</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.3862250540116545</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.3490739400143358</v>
+        <v>0.3487681657690444</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.421983903505688</v>
+        <v>0.427053230171596</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>556</v>
@@ -2159,19 +2159,19 @@
         <v>580879</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>544369</v>
+        <v>542409</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>618673</v>
+        <v>618327</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.4634997095116551</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.434367384051155</v>
+        <v>0.4328035301066379</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.4936562501005014</v>
+        <v>0.4933804691957208</v>
       </c>
     </row>
     <row r="24">
@@ -2263,19 +2263,19 @@
         <v>381308</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>352980</v>
+        <v>352332</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>409507</v>
+        <v>408849</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.5126519380950674</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.4745667665648606</v>
+        <v>0.4736944741223243</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.5505644379146548</v>
+        <v>0.5496797887195609</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>468</v>
@@ -2284,19 +2284,19 @@
         <v>495848</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>469850</v>
+        <v>470230</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>523619</v>
+        <v>526906</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.6328538700370731</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.599672935961779</v>
+        <v>0.6001576536831358</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.6682979885538137</v>
+        <v>0.6724936835858752</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>850</v>
@@ -2305,19 +2305,19 @@
         <v>877156</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>834477</v>
+        <v>838131</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>913217</v>
+        <v>915617</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.5743157653285822</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.5463720368362989</v>
+        <v>0.5487639764581113</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.5979266142715222</v>
+        <v>0.5994981354466681</v>
       </c>
     </row>
     <row r="26">
@@ -2334,19 +2334,19 @@
         <v>362487</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>334288</v>
+        <v>334946</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>390815</v>
+        <v>391463</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.4873480619049327</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.4494355620853452</v>
+        <v>0.4503202112804391</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.5254332334351394</v>
+        <v>0.5263055258776758</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>277</v>
@@ -2355,19 +2355,19 @@
         <v>287663</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>259892</v>
+        <v>256605</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>313661</v>
+        <v>313281</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.3671461299629269</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.3317020114461866</v>
+        <v>0.3275063164141247</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.400327064038221</v>
+        <v>0.3998423463168643</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>631</v>
@@ -2376,19 +2376,19 @@
         <v>650150</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>614089</v>
+        <v>611689</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>692829</v>
+        <v>689175</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.4256842346714178</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.4020733857284779</v>
+        <v>0.4005018645533319</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.4536279631637011</v>
+        <v>0.4512360235418887</v>
       </c>
     </row>
     <row r="27">
@@ -2480,19 +2480,19 @@
         <v>1577663</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>1516624</v>
+        <v>1523394</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>1631927</v>
+        <v>1641634</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.4815024443660664</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.4628732124690057</v>
+        <v>0.4649392775666743</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.4980636854765476</v>
+        <v>0.5010263420372424</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>2108</v>
@@ -2501,19 +2501,19 @@
         <v>2157045</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>2095624</v>
+        <v>2104348</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>2205612</v>
+        <v>2210545</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.6383305878113095</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.6201545164417686</v>
+        <v>0.6227361707410726</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.6527030235810997</v>
+        <v>0.654162740395743</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>3682</v>
@@ -2522,19 +2522,19 @@
         <v>3734709</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>3650523</v>
+        <v>3660070</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>3814800</v>
+        <v>3818160</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.5611259257641759</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.5484772876512933</v>
+        <v>0.5499117436912321</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.5731592627590186</v>
+        <v>0.5736641993934636</v>
       </c>
     </row>
     <row r="29">
@@ -2551,19 +2551,19 @@
         <v>1698880</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1644616</v>
+        <v>1634909</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1759919</v>
+        <v>1753149</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.5184975556339336</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.5019363145234522</v>
+        <v>0.4989736579627577</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.537126787530994</v>
+        <v>0.5350607224333257</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>1189</v>
@@ -2572,19 +2572,19 @@
         <v>1222152</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>1173585</v>
+        <v>1168652</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>1283573</v>
+        <v>1274849</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.3616694121886906</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.3472969764189004</v>
+        <v>0.345837259604257</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.3798454835582315</v>
+        <v>0.3772638292589272</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>2829</v>
@@ -2593,19 +2593,19 @@
         <v>2921032</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>2840941</v>
+        <v>2837581</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>3005218</v>
+        <v>2995671</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.4388740742358242</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.4268407372409814</v>
+        <v>0.4263358006065365</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.4515227123487064</v>
+        <v>0.450088256308768</v>
       </c>
     </row>
     <row r="30">
@@ -2941,19 +2941,19 @@
         <v>180256</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>161766</v>
+        <v>161674</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>195909</v>
+        <v>197048</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.6115796444189214</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.5488463903359194</v>
+        <v>0.5485334916320392</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.6646878378096466</v>
+        <v>0.6685520085973411</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>198</v>
@@ -2962,19 +2962,19 @@
         <v>225233</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>208794</v>
+        <v>209369</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>239289</v>
+        <v>238164</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.7841145829413987</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.7268830404798197</v>
+        <v>0.7288877252885202</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.8330492638476874</v>
+        <v>0.8291336144024481</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>371</v>
@@ -2983,19 +2983,19 @@
         <v>405489</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>382799</v>
+        <v>381660</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>427896</v>
+        <v>426711</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.6967364201690016</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.6577495658208697</v>
+        <v>0.6557917313719536</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.735237880415797</v>
+        <v>0.7332017437262337</v>
       </c>
     </row>
     <row r="5">
@@ -3012,19 +3012,19 @@
         <v>114482</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>98829</v>
+        <v>97690</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>132972</v>
+        <v>133064</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3884203555810785</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3353121621903533</v>
+        <v>0.3314479914026589</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4511536096640805</v>
+        <v>0.4514665083679608</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>58</v>
@@ -3033,19 +3033,19 @@
         <v>62012</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>47956</v>
+        <v>49081</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>78451</v>
+        <v>77876</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2158854170586013</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1669507361523125</v>
+        <v>0.1708663855975518</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2731169595201803</v>
+        <v>0.2711122747114795</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>167</v>
@@ -3054,19 +3054,19 @@
         <v>176494</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>154087</v>
+        <v>155272</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>199184</v>
+        <v>200323</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3032635798309984</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2647621195842028</v>
+        <v>0.2667982562737663</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3422504341791302</v>
+        <v>0.3442082686280465</v>
       </c>
     </row>
     <row r="6">
@@ -3158,19 +3158,19 @@
         <v>267013</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>245842</v>
+        <v>243584</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>290617</v>
+        <v>289991</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.5281873120049002</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.4863091109083767</v>
+        <v>0.4818413999018408</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.5748789149473309</v>
+        <v>0.5736408227943586</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>336</v>
@@ -3179,19 +3179,19 @@
         <v>368122</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>345104</v>
+        <v>345452</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>389559</v>
+        <v>390122</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.7028385419295394</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.6588912801612526</v>
+        <v>0.6595545312092678</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.7437675846252195</v>
+        <v>0.7448416883716775</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>579</v>
@@ -3200,19 +3200,19 @@
         <v>635135</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>599860</v>
+        <v>602586</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>665072</v>
+        <v>664675</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.6170602256009977</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.5827891518843138</v>
+        <v>0.5854373568465785</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.6461447774694531</v>
+        <v>0.6457596633134147</v>
       </c>
     </row>
     <row r="8">
@@ -3229,19 +3229,19 @@
         <v>238514</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>214910</v>
+        <v>215536</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>259685</v>
+        <v>261943</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.4718126879950998</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.4251210850526693</v>
+        <v>0.4263591772056415</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.5136908890916234</v>
+        <v>0.5181586000981593</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>144</v>
@@ -3250,19 +3250,19 @@
         <v>155643</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>134206</v>
+        <v>133643</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>178661</v>
+        <v>178313</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2971614580704606</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2562324153747805</v>
+        <v>0.2551583116283225</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3411087198387472</v>
+        <v>0.3404454687907321</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>373</v>
@@ -3271,19 +3271,19 @@
         <v>394157</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>364220</v>
+        <v>364617</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>429432</v>
+        <v>426706</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.3829397743990022</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.3538552225305469</v>
+        <v>0.3542403366865853</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.4172108481156862</v>
+        <v>0.4145626431534215</v>
       </c>
     </row>
     <row r="9">
@@ -3375,19 +3375,19 @@
         <v>192586</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>174161</v>
+        <v>175544</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>208984</v>
+        <v>211195</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.5943167691506317</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.5374571141953242</v>
+        <v>0.5417261276824537</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.6449198125331642</v>
+        <v>0.6517439497888408</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>219</v>
@@ -3396,19 +3396,19 @@
         <v>233986</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>215396</v>
+        <v>216583</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>250127</v>
+        <v>251999</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.6861360235507387</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.6316228952768178</v>
+        <v>0.6351032171966985</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.7334684960525744</v>
+        <v>0.7389565337680126</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>405</v>
@@ -3417,19 +3417,19 @@
         <v>426572</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>404297</v>
+        <v>401118</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>451798</v>
+        <v>454160</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.6413981151582994</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.6079046884509736</v>
+        <v>0.6031256830137834</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.6793283733073443</v>
+        <v>0.6828801566717282</v>
       </c>
     </row>
     <row r="11">
@@ -3446,19 +3446,19 @@
         <v>131460</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>115062</v>
+        <v>112851</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>149885</v>
+        <v>148502</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.4056832308493682</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3550801874668357</v>
+        <v>0.3482560502111593</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.4625428858046757</v>
+        <v>0.4582738723175463</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>98</v>
@@ -3467,19 +3467,19 @@
         <v>107034</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>90893</v>
+        <v>89021</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>125624</v>
+        <v>124437</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.3138639764492613</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2665315039474255</v>
+        <v>0.2610434662319872</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3683771047231819</v>
+        <v>0.3648967828033015</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>231</v>
@@ -3488,19 +3488,19 @@
         <v>238494</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>213268</v>
+        <v>210906</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>260769</v>
+        <v>263948</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.3586018848417006</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.3206716266926559</v>
+        <v>0.3171198433282717</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3920953115490264</v>
+        <v>0.3968743169862166</v>
       </c>
     </row>
     <row r="12">
@@ -3592,19 +3592,19 @@
         <v>221107</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>198815</v>
+        <v>202418</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>239422</v>
+        <v>239237</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.5912237245905225</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.5316156730373286</v>
+        <v>0.5412516605431402</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.6401967814684898</v>
+        <v>0.6397019883798745</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>263</v>
@@ -3613,19 +3613,19 @@
         <v>276695</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>256257</v>
+        <v>258976</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>293008</v>
+        <v>293712</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.7113876443031218</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.6588423812944879</v>
+        <v>0.665832719134441</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.7533284594809413</v>
+        <v>0.7551379381659734</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>465</v>
@@ -3634,19 +3634,19 @@
         <v>497802</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>467862</v>
+        <v>469944</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>522951</v>
+        <v>522626</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.6524845029988894</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.6132418802437942</v>
+        <v>0.6159701465900475</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.6854477395067632</v>
+        <v>0.6850219441192773</v>
       </c>
     </row>
     <row r="14">
@@ -3663,19 +3663,19 @@
         <v>152875</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>134560</v>
+        <v>134745</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>175167</v>
+        <v>171564</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.4087762754094775</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3598032185315102</v>
+        <v>0.3602980116201256</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4683843269626716</v>
+        <v>0.4587483394568598</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>108</v>
@@ -3684,19 +3684,19 @@
         <v>112256</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>95943</v>
+        <v>95239</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>132694</v>
+        <v>129975</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2886123556968782</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2466715405190587</v>
+        <v>0.2448620618340266</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3411576187055121</v>
+        <v>0.334167280865559</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>250</v>
@@ -3705,19 +3705,19 @@
         <v>265131</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>239982</v>
+        <v>240307</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>295071</v>
+        <v>292989</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.3475154970011106</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.3145522604932368</v>
+        <v>0.3149780558807228</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3867581197562057</v>
+        <v>0.3840298534099526</v>
       </c>
     </row>
     <row r="15">
@@ -3809,19 +3809,19 @@
         <v>119803</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>104367</v>
+        <v>104212</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>134815</v>
+        <v>133788</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.5634679149945395</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.4908644545202784</v>
+        <v>0.4901363058978625</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.6340722984973414</v>
+        <v>0.6292416720878744</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>174</v>
@@ -3830,19 +3830,19 @@
         <v>180758</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>169083</v>
+        <v>167809</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>191551</v>
+        <v>190810</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.8231596331848341</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.769989726343797</v>
+        <v>0.7641891605894851</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.8723073670825831</v>
+        <v>0.8689343417247408</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>284</v>
@@ -3851,19 +3851,19 @@
         <v>300562</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>282901</v>
+        <v>279064</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>319976</v>
+        <v>319609</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.6954086170511415</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.654546573558127</v>
+        <v>0.6456682962077803</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.7403258863531434</v>
+        <v>0.739478438079596</v>
       </c>
     </row>
     <row r="17">
@@ -3880,19 +3880,19 @@
         <v>92815</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>77803</v>
+        <v>78830</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>108251</v>
+        <v>108406</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.4365320850054605</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.3659277015026588</v>
+        <v>0.3707583279121257</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.5091355454797216</v>
+        <v>0.5098636941021375</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>38</v>
@@ -3901,19 +3901,19 @@
         <v>38833</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>28040</v>
+        <v>28781</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>50508</v>
+        <v>51782</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1768403668151659</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1276926329174171</v>
+        <v>0.1310656582752594</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2300102736562031</v>
+        <v>0.2358108394105151</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>124</v>
@@ -3922,19 +3922,19 @@
         <v>131647</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>112233</v>
+        <v>112600</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>149308</v>
+        <v>153145</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.3045913829488585</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2596741136468565</v>
+        <v>0.2605215619204039</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.345453426441873</v>
+        <v>0.3543317037922197</v>
       </c>
     </row>
     <row r="18">
@@ -4026,19 +4026,19 @@
         <v>171526</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>154631</v>
+        <v>154933</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>187145</v>
+        <v>188784</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.6260508484893045</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.5643854543681078</v>
+        <v>0.5654863083049632</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.6830564977908914</v>
+        <v>0.6890399386336244</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>209</v>
@@ -4047,19 +4047,19 @@
         <v>217152</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>201883</v>
+        <v>201843</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>229287</v>
+        <v>230323</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.7754579515087292</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.7209301913730899</v>
+        <v>0.7207889308013585</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.818792061666007</v>
+        <v>0.822491127245092</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>372</v>
@@ -4068,19 +4068,19 @@
         <v>388678</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>367652</v>
+        <v>364025</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>411643</v>
+        <v>407915</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.7015701875193854</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.6636171949192136</v>
+        <v>0.6570699278277546</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.7430217878896157</v>
+        <v>0.7362935393357456</v>
       </c>
     </row>
     <row r="20">
@@ -4097,19 +4097,19 @@
         <v>102455</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>86836</v>
+        <v>85197</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>119350</v>
+        <v>119048</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.3739491515106955</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.3169435022091086</v>
+        <v>0.3109600613663756</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.4356145456318922</v>
+        <v>0.4345136916950368</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>60</v>
@@ -4118,19 +4118,19 @@
         <v>62879</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>50744</v>
+        <v>49708</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>78148</v>
+        <v>78188</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2245420484912708</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.181207938333994</v>
+        <v>0.1775088727549081</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2790698086269102</v>
+        <v>0.2792110691986415</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>158</v>
@@ -4139,19 +4139,19 @@
         <v>165334</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>142369</v>
+        <v>146097</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>186360</v>
+        <v>189987</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2984298124806146</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2569782121103843</v>
+        <v>0.2637064606642544</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3363828050807864</v>
+        <v>0.3429300721722454</v>
       </c>
     </row>
     <row r="21">
@@ -4243,19 +4243,19 @@
         <v>383905</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>354569</v>
+        <v>358603</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>408464</v>
+        <v>408807</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.5792270106000607</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.5349656621502816</v>
+        <v>0.5410522730835149</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.616281622014238</v>
+        <v>0.6167985497134959</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>435</v>
@@ -4264,19 +4264,19 @@
         <v>476644</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>450242</v>
+        <v>449436</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>499106</v>
+        <v>500970</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.6869519522221118</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.6489010312262208</v>
+        <v>0.6477401297369239</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.7193258623948156</v>
+        <v>0.7220110670539133</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>796</v>
@@ -4285,19 +4285,19 @@
         <v>860548</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>816774</v>
+        <v>823250</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>896536</v>
+        <v>899323</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.6343228467246932</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.6020560304889251</v>
+        <v>0.60682993700471</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.6608501239103121</v>
+        <v>0.6629042595087251</v>
       </c>
     </row>
     <row r="23">
@@ -4314,19 +4314,19 @@
         <v>278883</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>254324</v>
+        <v>253981</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>308219</v>
+        <v>304185</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.4207729893999394</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.383718377985762</v>
+        <v>0.3832014502865042</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.4650343378497184</v>
+        <v>0.4589477269164852</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>201</v>
@@ -4335,19 +4335,19 @@
         <v>217209</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>194747</v>
+        <v>192883</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>243611</v>
+        <v>244417</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.3130480477778881</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2806741376051846</v>
+        <v>0.2779889329460867</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.3510989687737793</v>
+        <v>0.3522598702630763</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>458</v>
@@ -4356,19 +4356,19 @@
         <v>496093</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>460105</v>
+        <v>457318</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>539867</v>
+        <v>533391</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.3656771532753068</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.3391498760896878</v>
+        <v>0.3370957404912749</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.3979439695110749</v>
+        <v>0.39317006299529</v>
       </c>
     </row>
     <row r="24">
@@ -4460,19 +4460,19 @@
         <v>370754</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>339681</v>
+        <v>340949</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>399187</v>
+        <v>401528</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.4758765257091334</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.4359922164271758</v>
+        <v>0.4376207059493987</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.5123709258771693</v>
+        <v>0.515375037949465</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>439</v>
@@ -4481,19 +4481,19 @@
         <v>483232</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>455321</v>
+        <v>456761</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>510413</v>
+        <v>515268</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.586551489981867</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.5526724901363301</v>
+        <v>0.5544203570079882</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.619543894128872</v>
+        <v>0.6254371523955581</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>775</v>
@@ -4502,19 +4502,19 @@
         <v>853987</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>813643</v>
+        <v>810491</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>892848</v>
+        <v>893074</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.532759041820546</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.5075906723306799</v>
+        <v>0.505624307916824</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.5570029443364679</v>
+        <v>0.5571436580610064</v>
       </c>
     </row>
     <row r="26">
@@ -4531,19 +4531,19 @@
         <v>408344</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>379911</v>
+        <v>377570</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>439417</v>
+        <v>438149</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.5241234742908666</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.4876290741228307</v>
+        <v>0.484624962050535</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.5640077835728239</v>
+        <v>0.5623792940506013</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>318</v>
@@ -4552,19 +4552,19 @@
         <v>340621</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>313440</v>
+        <v>308585</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>368532</v>
+        <v>367092</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.413448510018133</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.3804561058711284</v>
+        <v>0.3745628476044418</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.4473275098636699</v>
+        <v>0.4455796429920116</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>699</v>
@@ -4573,19 +4573,19 @@
         <v>748964</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>710103</v>
+        <v>709877</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>789308</v>
+        <v>792460</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.467240958179454</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.4429970556635321</v>
+        <v>0.4428563419389936</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.4924093276693202</v>
+        <v>0.494375692083176</v>
       </c>
     </row>
     <row r="27">
@@ -4677,19 +4677,19 @@
         <v>1906951</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>1846171</v>
+        <v>1840032</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>1961433</v>
+        <v>1966127</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.5564849286974062</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.5387482455819056</v>
+        <v>0.5369566434017515</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.5723839599355716</v>
+        <v>0.5737535164392629</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>2273</v>
@@ -4698,19 +4698,19 @@
         <v>2461823</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>2407949</v>
+        <v>2405808</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>2517617</v>
+        <v>2521939</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.6918519034370659</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.6767117199727849</v>
+        <v>0.6761099179606505</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.7075318429644937</v>
+        <v>0.7087464418306317</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>4047</v>
@@ -4719,19 +4719,19 @@
         <v>4368774</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>4285918</v>
+        <v>4278732</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>4450438</v>
+        <v>4448535</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.6254429060395802</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.6135811387074114</v>
+        <v>0.6125523972633186</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.6371340935000492</v>
+        <v>0.6368616847915314</v>
       </c>
     </row>
     <row r="29">
@@ -4748,19 +4748,19 @@
         <v>1519828</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1465346</v>
+        <v>1460652</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1580608</v>
+        <v>1586747</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.4435150713025939</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.4276160400644284</v>
+        <v>0.4262464835607371</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.4612517544180944</v>
+        <v>0.4630433565982486</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>1025</v>
@@ -4769,19 +4769,19 @@
         <v>1096486</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>1040692</v>
+        <v>1036370</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>1150360</v>
+        <v>1152501</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.3081480965629341</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2924681570355062</v>
+        <v>0.2912535581693684</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.323288280027215</v>
+        <v>0.32389008203935</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>2460</v>
@@ -4790,19 +4790,19 @@
         <v>2616314</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>2534650</v>
+        <v>2536553</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>2699170</v>
+        <v>2706356</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.3745570939604199</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.3628659064999508</v>
+        <v>0.3631383152084686</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.3864188612925886</v>
+        <v>0.3874476027366814</v>
       </c>
     </row>
     <row r="30">
@@ -5138,19 +5138,19 @@
         <v>166455</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>147696</v>
+        <v>150130</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>183081</v>
+        <v>185591</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.5666325945688903</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.5027772561021597</v>
+        <v>0.5110607871679402</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.6232321974162419</v>
+        <v>0.6317760881112602</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>188</v>
@@ -5159,19 +5159,19 @@
         <v>198810</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>182850</v>
+        <v>182694</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>212780</v>
+        <v>213428</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.6886330013581892</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.6333490701021941</v>
+        <v>0.632809708160988</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.7370187303713687</v>
+        <v>0.7392663805792333</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>343</v>
@@ -5180,19 +5180,19 @@
         <v>365265</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>339394</v>
+        <v>340466</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>388415</v>
+        <v>386890</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.6271030843884117</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.582686180899663</v>
+        <v>0.584527181072454</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.666847700725049</v>
+        <v>0.6642299354047979</v>
       </c>
     </row>
     <row r="5">
@@ -5209,19 +5209,19 @@
         <v>127306</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>110680</v>
+        <v>108170</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>146065</v>
+        <v>143631</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.4333674054311097</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3767678025837582</v>
+        <v>0.3682239118887398</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4972227438978404</v>
+        <v>0.4889392128320598</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>89</v>
@@ -5230,19 +5230,19 @@
         <v>89893</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>75923</v>
+        <v>75275</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>105853</v>
+        <v>106009</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3113669986418108</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2629812696286313</v>
+        <v>0.2607336194207668</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3666509298978058</v>
+        <v>0.367190291839012</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>200</v>
@@ -5251,19 +5251,19 @@
         <v>217199</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>194049</v>
+        <v>195574</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>243070</v>
+        <v>241998</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3728969156115883</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3331522992749511</v>
+        <v>0.3357700645952018</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.4173138191003371</v>
+        <v>0.4154728189275459</v>
       </c>
     </row>
     <row r="6">
@@ -5355,19 +5355,19 @@
         <v>289108</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>267890</v>
+        <v>264785</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>311390</v>
+        <v>310946</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.5752535911733911</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.5330349604831244</v>
+        <v>0.5268561237649431</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.619589849898577</v>
+        <v>0.6187056977353286</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>339</v>
@@ -5376,19 +5376,19 @@
         <v>371835</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>350940</v>
+        <v>349810</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>392795</v>
+        <v>393417</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.7108510708859478</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.6709060785308181</v>
+        <v>0.6687451374801504</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.7509210615282429</v>
+        <v>0.752111382351086</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>613</v>
@@ -5397,19 +5397,19 @@
         <v>660943</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>629104</v>
+        <v>630181</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>692904</v>
+        <v>691729</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.6444080051412558</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.613366136404691</v>
+        <v>0.6144161219936503</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.6755699686744776</v>
+        <v>0.6744234719092563</v>
       </c>
     </row>
     <row r="8">
@@ -5426,19 +5426,19 @@
         <v>213467</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>191185</v>
+        <v>191629</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>234685</v>
+        <v>237790</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.4247464088266089</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.3804101501014234</v>
+        <v>0.3812943022646715</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.4669650395168756</v>
+        <v>0.473143876235057</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>145</v>
@@ -5447,19 +5447,19 @@
         <v>151249</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>130289</v>
+        <v>129667</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>172144</v>
+        <v>173274</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2891489291140522</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2490789384717569</v>
+        <v>0.2478886176489138</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3290939214691819</v>
+        <v>0.3312548625198488</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>346</v>
@@ -5468,19 +5468,19 @@
         <v>364716</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>332755</v>
+        <v>333930</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>396555</v>
+        <v>395478</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.3555919948587442</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.3244300313255224</v>
+        <v>0.3255765280907437</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.386633863595309</v>
+        <v>0.3855838780063497</v>
       </c>
     </row>
     <row r="9">
@@ -5572,19 +5572,19 @@
         <v>168067</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>151887</v>
+        <v>151210</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>186000</v>
+        <v>184329</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.5275747562923317</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.4767851324794443</v>
+        <v>0.4746595028817699</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.583868135168536</v>
+        <v>0.5786241953569665</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>198</v>
@@ -5593,19 +5593,19 @@
         <v>207240</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>188433</v>
+        <v>188551</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>225101</v>
+        <v>223130</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.6162197877007259</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.5602964176454143</v>
+        <v>0.5606476236475079</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.6693293263377902</v>
+        <v>0.6634683683088864</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>376</v>
@@ -5614,19 +5614,19 @@
         <v>375307</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>350269</v>
+        <v>351152</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>400009</v>
+        <v>400246</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.5730982036473176</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.5348643399544345</v>
+        <v>0.5362138142528992</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.6108179485774893</v>
+        <v>0.6111801805113902</v>
       </c>
     </row>
     <row r="11">
@@ -5643,19 +5643,19 @@
         <v>150498</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>132565</v>
+        <v>134236</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>166678</v>
+        <v>167355</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.4724252437076683</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.416131864831464</v>
+        <v>0.4213758046430334</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.5232148675205558</v>
+        <v>0.5253404971182301</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>134</v>
@@ -5664,19 +5664,19 @@
         <v>129069</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>111208</v>
+        <v>113179</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>147876</v>
+        <v>147758</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.3837802122992741</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.33067067366221</v>
+        <v>0.3365316316911136</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.4397035823545859</v>
+        <v>0.4393523763524921</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>291</v>
@@ -5685,19 +5685,19 @@
         <v>279567</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>254865</v>
+        <v>254628</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>304605</v>
+        <v>303722</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.4269017963526825</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.3891820514225116</v>
+        <v>0.38881981948861</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.4651356600455657</v>
+        <v>0.4637861857471009</v>
       </c>
     </row>
     <row r="12">
@@ -5789,19 +5789,19 @@
         <v>215750</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>196198</v>
+        <v>196898</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>236795</v>
+        <v>234536</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.5831639582890463</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.5303169060515996</v>
+        <v>0.5322079634772082</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.6400500101440316</v>
+        <v>0.6339422009812077</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>250</v>
@@ -5810,19 +5810,19 @@
         <v>275965</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>255735</v>
+        <v>257031</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>292983</v>
+        <v>292796</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.7125671223225628</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.6603303327596797</v>
+        <v>0.6636785489744135</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.7565085812604074</v>
+        <v>0.7560247110319962</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>459</v>
@@ -5831,19 +5831,19 @@
         <v>491715</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>462540</v>
+        <v>462637</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>517053</v>
+        <v>515311</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.6493453307479632</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.6108176020198746</v>
+        <v>0.6109460378624886</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.6828062394881381</v>
+        <v>0.6805054767614988</v>
       </c>
     </row>
     <row r="14">
@@ -5860,19 +5860,19 @@
         <v>154214</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>133169</v>
+        <v>135428</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>173766</v>
+        <v>173066</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.4168360417109537</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3599499898559689</v>
+        <v>0.3660577990187924</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4696830939484003</v>
+        <v>0.4677920365227918</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>108</v>
@@ -5881,19 +5881,19 @@
         <v>111318</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>94300</v>
+        <v>94487</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>131548</v>
+        <v>130252</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2874328776774372</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2434914187395927</v>
+        <v>0.2439752889680038</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3396696672403204</v>
+        <v>0.3363214510255865</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>253</v>
@@ -5902,19 +5902,19 @@
         <v>265532</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>240194</v>
+        <v>241936</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>294707</v>
+        <v>294610</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.3506546692520368</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.3171937605118619</v>
+        <v>0.3194945232385012</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3891823979801254</v>
+        <v>0.3890539621375115</v>
       </c>
     </row>
     <row r="15">
@@ -6006,19 +6006,19 @@
         <v>111331</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>96576</v>
+        <v>97113</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>124886</v>
+        <v>125540</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.5270842581627769</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.4572273814122872</v>
+        <v>0.4597696630311535</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.5912594257655424</v>
+        <v>0.5943557099395786</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>141</v>
@@ -6027,19 +6027,19 @@
         <v>140436</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>125146</v>
+        <v>127631</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>153831</v>
+        <v>153658</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.6424710530300946</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.5725223373178896</v>
+        <v>0.5838903386380997</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.7037534194763879</v>
+        <v>0.7029584402190658</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>254</v>
@@ -6048,19 +6048,19 @@
         <v>251767</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>232859</v>
+        <v>229975</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>271932</v>
+        <v>269336</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.585766398634432</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.5417745429337433</v>
+        <v>0.5350643126888758</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.6326834196411188</v>
+        <v>0.6266431030618332</v>
       </c>
     </row>
     <row r="17">
@@ -6077,19 +6077,19 @@
         <v>99890</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>86335</v>
+        <v>85681</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>114645</v>
+        <v>114108</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.4729157418372231</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.4087405742344577</v>
+        <v>0.4056442900604211</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.5427726185877129</v>
+        <v>0.5402303369688465</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>82</v>
@@ -6098,19 +6098,19 @@
         <v>78151</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>64756</v>
+        <v>64929</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>93441</v>
+        <v>90956</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3575289469699054</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2962465805236126</v>
+        <v>0.2970415597809341</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.4274776626821104</v>
+        <v>0.4161096613619003</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>181</v>
@@ -6119,19 +6119,19 @@
         <v>178041</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>157876</v>
+        <v>160472</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>196949</v>
+        <v>199833</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.414233601365568</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.3673165803588812</v>
+        <v>0.3733568969381666</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.4582254570662567</v>
+        <v>0.4649356873111238</v>
       </c>
     </row>
     <row r="18">
@@ -6223,19 +6223,19 @@
         <v>130287</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>115344</v>
+        <v>115523</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>147144</v>
+        <v>146328</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.495155872395522</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.4383642014585798</v>
+        <v>0.4390459975737282</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.5592215411763808</v>
+        <v>0.5561197437799109</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>157</v>
@@ -6244,19 +6244,19 @@
         <v>169278</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>152342</v>
+        <v>154110</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>182845</v>
+        <v>185483</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.6198040266219773</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.5577945910195765</v>
+        <v>0.5642690928712775</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.6694793418759305</v>
+        <v>0.6791371641802102</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>288</v>
@@ -6265,19 +6265,19 @@
         <v>299565</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>275112</v>
+        <v>276776</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>320661</v>
+        <v>322562</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.5586412664186783</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.5130401620197159</v>
+        <v>0.5161435279643731</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.5979820323835294</v>
+        <v>0.6015285992542964</v>
       </c>
     </row>
     <row r="20">
@@ -6294,19 +6294,19 @@
         <v>132836</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>115979</v>
+        <v>116795</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>147779</v>
+        <v>147600</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.5048441276044781</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.4407784588236192</v>
+        <v>0.443880256220089</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.5616357985414201</v>
+        <v>0.5609540024262718</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>106</v>
@@ -6315,19 +6315,19 @@
         <v>103837</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>90270</v>
+        <v>87632</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>120773</v>
+        <v>119005</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.3801959733780226</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.3305206581240696</v>
+        <v>0.3208628358197898</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.442205408980424</v>
+        <v>0.4357309071287229</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>234</v>
@@ -6336,19 +6336,19 @@
         <v>236673</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>215577</v>
+        <v>213676</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>261126</v>
+        <v>259462</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.4413587335813218</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.4020179676164704</v>
+        <v>0.3984714007457036</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.4869598379802839</v>
+        <v>0.4838564720356269</v>
       </c>
     </row>
     <row r="21">
@@ -6440,19 +6440,19 @@
         <v>292860</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>265630</v>
+        <v>270056</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>319543</v>
+        <v>319909</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.4460535605599977</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.4045794983919109</v>
+        <v>0.4113211916039148</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.4866941609289633</v>
+        <v>0.4872521592079704</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>350</v>
@@ -6461,19 +6461,19 @@
         <v>390700</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>365976</v>
+        <v>364312</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>417001</v>
+        <v>418291</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.5651724699892154</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.5294076091293674</v>
+        <v>0.5270007648215931</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.6032181634099607</v>
+        <v>0.605084777959392</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>611</v>
@@ -6482,19 +6482,19 @@
         <v>683560</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>647455</v>
+        <v>644300</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>722901</v>
+        <v>721715</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.5071479444991521</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.4803604155110575</v>
+        <v>0.4780202070110312</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.5363354914829195</v>
+        <v>0.5354557652465564</v>
       </c>
     </row>
     <row r="23">
@@ -6511,19 +6511,19 @@
         <v>363698</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>337015</v>
+        <v>336649</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>390928</v>
+        <v>386502</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.5539464394400023</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.5133058390710367</v>
+        <v>0.5127478407920292</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.5954205016080891</v>
+        <v>0.5886788083960852</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>296</v>
@@ -6532,19 +6532,19 @@
         <v>300594</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>274293</v>
+        <v>273003</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>325318</v>
+        <v>326982</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.4348275300107846</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.3967818365900395</v>
+        <v>0.3949152220406081</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.470592390870633</v>
+        <v>0.4729992351784069</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>615</v>
@@ -6553,19 +6553,19 @@
         <v>664292</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>624951</v>
+        <v>626137</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>700397</v>
+        <v>703552</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.4928520555008479</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.4636645085170804</v>
+        <v>0.4645442347534435</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.5196395844889423</v>
+        <v>0.5219797929889687</v>
       </c>
     </row>
     <row r="24">
@@ -6657,19 +6657,19 @@
         <v>398776</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>370184</v>
+        <v>369818</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>425316</v>
+        <v>427617</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.5121821976286792</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.4754591661984526</v>
+        <v>0.4749887137516563</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.5462687717698674</v>
+        <v>0.5492251126834566</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>445</v>
@@ -6678,19 +6678,19 @@
         <v>505072</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>473425</v>
+        <v>477231</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>534089</v>
+        <v>533182</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.6113436752449789</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.5730382590596828</v>
+        <v>0.5776441341142259</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.6464662890868496</v>
+        <v>0.6453688381167094</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>830</v>
@@ -6699,19 +6699,19 @@
         <v>903848</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>864900</v>
+        <v>859044</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>947284</v>
+        <v>942822</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.5632331032136134</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.5389623350858938</v>
+        <v>0.5353132575675422</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.5902999326816205</v>
+        <v>0.5875196675175769</v>
       </c>
     </row>
     <row r="26">
@@ -6728,19 +6728,19 @@
         <v>379807</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>353267</v>
+        <v>350966</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>408399</v>
+        <v>408765</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.4878178023713207</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.4537312282301326</v>
+        <v>0.4507748873165434</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.5245408338015475</v>
+        <v>0.5250112862483437</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>310</v>
@@ -6749,19 +6749,19 @@
         <v>321095</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>292078</v>
+        <v>292985</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>352742</v>
+        <v>348936</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.3886563247550212</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.3535337109131502</v>
+        <v>0.3546311618832903</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.4269617409403171</v>
+        <v>0.4223558658857741</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>675</v>
@@ -6770,19 +6770,19 @@
         <v>700902</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>657466</v>
+        <v>661928</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>739850</v>
+        <v>745706</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.4367668967863866</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.4097000673183794</v>
+        <v>0.4124803324824231</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.4610376649141062</v>
+        <v>0.4646867424324576</v>
       </c>
     </row>
     <row r="27">
@@ -6874,19 +6874,19 @@
         <v>1772634</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>1712375</v>
+        <v>1714256</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>1830368</v>
+        <v>1834077</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.5222306839753268</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.5044779181213911</v>
+        <v>0.5050323128073535</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.5392396948650187</v>
+        <v>0.5403322207537392</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>2068</v>
@@ -6895,19 +6895,19 @@
         <v>2259337</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>2200249</v>
+        <v>2203364</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>2314291</v>
+        <v>2319045</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.6374128260494004</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.620742961573084</v>
+        <v>0.6216215261893834</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.6529166966170907</v>
+        <v>0.6542580386838661</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>3774</v>
@@ -6916,19 +6916,19 @@
         <v>4031970</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>3945209</v>
+        <v>3946901</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>4111325</v>
+        <v>4114679</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.5810683081933377</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.5685646454208154</v>
+        <v>0.5688085759080134</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.5925045735052676</v>
+        <v>0.5929878569635084</v>
       </c>
     </row>
     <row r="29">
@@ -6945,19 +6945,19 @@
         <v>1621716</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1563982</v>
+        <v>1560273</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1681975</v>
+        <v>1680094</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.4777693160246733</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.4607603051349813</v>
+        <v>0.4596677792462608</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.495522081878609</v>
+        <v>0.4949676871926467</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>1270</v>
@@ -6966,19 +6966,19 @@
         <v>1285205</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>1230251</v>
+        <v>1225497</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>1344293</v>
+        <v>1341178</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.3625871739505996</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.3470833033829093</v>
+        <v>0.3457419613161339</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.379257038426916</v>
+        <v>0.3783784738106169</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>2795</v>
@@ -6987,19 +6987,19 @@
         <v>2906922</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>2827567</v>
+        <v>2824213</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>2993683</v>
+        <v>2991991</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.4189316918066623</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.4074954264947324</v>
+        <v>0.4070121430364915</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.4314353545791844</v>
+        <v>0.4311914240919867</v>
       </c>
     </row>
     <row r="30">
@@ -7335,19 +7335,19 @@
         <v>191271</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>173247</v>
+        <v>172628</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>208497</v>
+        <v>208596</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.5998878725243676</v>
+        <v>0.5998878725243677</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.543356809004802</v>
+        <v>0.541417613136262</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.6539130163646125</v>
+        <v>0.6542233859887371</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>374</v>
@@ -7356,19 +7356,19 @@
         <v>211079</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>195791</v>
+        <v>197563</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>224741</v>
+        <v>224981</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.6678410375582068</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.6194721335469358</v>
+        <v>0.6250801796863517</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.7110699288837404</v>
+        <v>0.711826319838907</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>578</v>
@@ -7377,19 +7377,19 @@
         <v>402350</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>378050</v>
+        <v>376622</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>424159</v>
+        <v>424697</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.6337154369218277</v>
+        <v>0.633715436921828</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.5954420037046958</v>
+        <v>0.5931935674151158</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.6680654767019579</v>
+        <v>0.6689136759830684</v>
       </c>
     </row>
     <row r="5">
@@ -7406,19 +7406,19 @@
         <v>127574</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>110348</v>
+        <v>110249</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>145598</v>
+        <v>146217</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.4001121274756325</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3460869836353875</v>
+        <v>0.3457766140112634</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.456643190995198</v>
+        <v>0.4585823868637382</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>164</v>
@@ -7427,19 +7427,19 @@
         <v>104982</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>91320</v>
+        <v>91080</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>120270</v>
+        <v>118498</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3321589624417933</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2889300711162602</v>
+        <v>0.288173680161093</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3805278664530644</v>
+        <v>0.3749198203136485</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>291</v>
@@ -7448,19 +7448,19 @@
         <v>232556</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>210747</v>
+        <v>210209</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>256856</v>
+        <v>258284</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.3662845630781722</v>
+        <v>0.3662845630781721</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3319345232980421</v>
+        <v>0.3310863240169314</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.4045579962953044</v>
+        <v>0.4068064325848832</v>
       </c>
     </row>
     <row r="6">
@@ -7552,19 +7552,19 @@
         <v>210802</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>182692</v>
+        <v>185089</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>238987</v>
+        <v>243503</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3972542170332212</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.344281171568789</v>
+        <v>0.3487987730054766</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4503683424779533</v>
+        <v>0.4588799192903452</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>354</v>
@@ -7573,19 +7573,19 @@
         <v>246507</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>225401</v>
+        <v>226136</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>268210</v>
+        <v>268248</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.4510700256121323</v>
+        <v>0.4510700256121322</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.4124499972458943</v>
+        <v>0.4137945451000924</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4907830093728262</v>
+        <v>0.490852121406586</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>523</v>
@@ -7594,19 +7594,19 @@
         <v>457309</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>423517</v>
+        <v>423716</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>490894</v>
+        <v>491193</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.4245580013145197</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3931857911770953</v>
+        <v>0.3933712281434669</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.4557381839189612</v>
+        <v>0.4560154496714803</v>
       </c>
     </row>
     <row r="8">
@@ -7623,19 +7623,19 @@
         <v>319845</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>291660</v>
+        <v>287144</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>347955</v>
+        <v>345558</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6027457829667787</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5496316575220467</v>
+        <v>0.5411200807096547</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6557188284312107</v>
+        <v>0.6512012269945234</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>363</v>
@@ -7644,19 +7644,19 @@
         <v>299987</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>278284</v>
+        <v>278246</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>321093</v>
+        <v>320358</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.5489299743878677</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.509216990627174</v>
+        <v>0.5091478785934141</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.5875500027541056</v>
+        <v>0.5862054548999077</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>576</v>
@@ -7665,19 +7665,19 @@
         <v>619832</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>586247</v>
+        <v>585948</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>653624</v>
+        <v>653425</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.5754419986854803</v>
+        <v>0.5754419986854804</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.5442618160810393</v>
+        <v>0.5439845503285201</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6068142088229047</v>
+        <v>0.6066287718565332</v>
       </c>
     </row>
     <row r="9">
@@ -7769,19 +7769,19 @@
         <v>152561</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>135760</v>
+        <v>138348</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>169463</v>
+        <v>170647</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.4827975144805147</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.4296296374548486</v>
+        <v>0.4378185561539398</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.536288263071391</v>
+        <v>0.5400352271110729</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>306</v>
@@ -7790,19 +7790,19 @@
         <v>181114</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>166297</v>
+        <v>165172</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>196611</v>
+        <v>196270</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.5082045838009378</v>
+        <v>0.5082045838009379</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.4666271208016837</v>
+        <v>0.4634697366215067</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.5516880854531897</v>
+        <v>0.5507297869178563</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>496</v>
@@ -7811,19 +7811,19 @@
         <v>333676</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>312706</v>
+        <v>309708</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>358572</v>
+        <v>356020</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.4962641194741764</v>
+        <v>0.4962641194741763</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.4650761867848885</v>
+        <v>0.4606177917077099</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.5332910465025789</v>
+        <v>0.5294959514605023</v>
       </c>
     </row>
     <row r="11">
@@ -7840,19 +7840,19 @@
         <v>163432</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>146530</v>
+        <v>145346</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>180233</v>
+        <v>177645</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.5172024855194852</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.4637117369286091</v>
+        <v>0.4599647728889271</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.5703703625451512</v>
+        <v>0.5621814438460604</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>230</v>
@@ -7861,19 +7861,19 @@
         <v>175267</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>159770</v>
+        <v>160111</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>190084</v>
+        <v>191209</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.4917954161990622</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.4483119145468103</v>
+        <v>0.4492702130821438</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.5333728791983162</v>
+        <v>0.5365302633784933</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>400</v>
@@ -7882,19 +7882,19 @@
         <v>338699</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>313803</v>
+        <v>316355</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>359669</v>
+        <v>362667</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.5037358805258237</v>
+        <v>0.5037358805258236</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.4667089534974206</v>
+        <v>0.4705040485394978</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.5349238132151112</v>
+        <v>0.5393822082922902</v>
       </c>
     </row>
     <row r="12">
@@ -7986,19 +7986,19 @@
         <v>165896</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>142399</v>
+        <v>143543</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>191295</v>
+        <v>190645</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.4445890613776375</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3816192797697794</v>
+        <v>0.3846839415439252</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.5126550803518357</v>
+        <v>0.5109152345437266</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>355</v>
@@ -8007,19 +8007,19 @@
         <v>216663</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>197658</v>
+        <v>196138</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>235149</v>
+        <v>236881</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.5134667815439116</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.4684278889956207</v>
+        <v>0.4648257248117076</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.5572755123955339</v>
+        <v>0.5613812575600413</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>512</v>
@@ -8028,19 +8028,19 @@
         <v>382560</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>354149</v>
+        <v>349193</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>413964</v>
+        <v>413558</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.4811423216722188</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.4454110656236</v>
+        <v>0.439177244563839</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.5206387837895993</v>
+        <v>0.5201287472726173</v>
       </c>
     </row>
     <row r="14">
@@ -8057,19 +8057,19 @@
         <v>207249</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>181850</v>
+        <v>182500</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>230746</v>
+        <v>229602</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.5554109386223626</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4873449196481643</v>
+        <v>0.4890847654562737</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6183807202302206</v>
+        <v>0.6153160584560748</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>244</v>
@@ -8078,19 +8078,19 @@
         <v>205298</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>186812</v>
+        <v>185080</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>224303</v>
+        <v>225823</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.4865332184560885</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.4427244876044661</v>
+        <v>0.4386187424399587</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.5315721110043794</v>
+        <v>0.5351742751882923</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>379</v>
@@ -8099,19 +8099,19 @@
         <v>412547</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>381143</v>
+        <v>381549</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>440958</v>
+        <v>445914</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.5188576783277812</v>
+        <v>0.5188576783277811</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4793612162104007</v>
+        <v>0.4798712527273827</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5545889343764001</v>
+        <v>0.5608227554361611</v>
       </c>
     </row>
     <row r="15">
@@ -8203,19 +8203,19 @@
         <v>25319</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>18457</v>
+        <v>19057</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>34644</v>
+        <v>34123</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1231084468796166</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.08974384535898526</v>
+        <v>0.09266129507824869</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1684478236184703</v>
+        <v>0.1659134140806492</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>100</v>
@@ -8224,19 +8224,19 @@
         <v>41267</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>32899</v>
+        <v>34236</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>49693</v>
+        <v>49716</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.180271054793395</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1437162978894342</v>
+        <v>0.1495553062757202</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.217076522380423</v>
+        <v>0.2171784312634106</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>139</v>
@@ -8245,19 +8245,19 @@
         <v>66586</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>56579</v>
+        <v>55370</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>78497</v>
+        <v>78727</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1532190293172481</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1301922223089774</v>
+        <v>0.1274104611077325</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1806264456767221</v>
+        <v>0.1811550863133201</v>
       </c>
     </row>
     <row r="17">
@@ -8274,19 +8274,19 @@
         <v>180346</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>171021</v>
+        <v>171542</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>187208</v>
+        <v>186608</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.8768915531203831</v>
+        <v>0.8768915531203834</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8315521763815298</v>
+        <v>0.8340865859193509</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9102561546410148</v>
+        <v>0.9073387049217513</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>395</v>
@@ -8295,19 +8295,19 @@
         <v>187651</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>179225</v>
+        <v>179202</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>196019</v>
+        <v>194682</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.819728945206605</v>
+        <v>0.8197289452066051</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7829234776195769</v>
+        <v>0.7828215687365895</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8562837021105656</v>
+        <v>0.8504446937242799</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>635</v>
@@ -8316,19 +8316,19 @@
         <v>367996</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>356085</v>
+        <v>355855</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>378003</v>
+        <v>379212</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8467809706827519</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8193735543232777</v>
+        <v>0.8188449136866797</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8698077776910225</v>
+        <v>0.8725895388922676</v>
       </c>
     </row>
     <row r="18">
@@ -8420,19 +8420,19 @@
         <v>155289</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>141077</v>
+        <v>139743</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>170661</v>
+        <v>169838</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.5736415620274511</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.5211413657606857</v>
+        <v>0.5162163587177329</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.6304256317744066</v>
+        <v>0.6273878549376773</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>288</v>
@@ -8441,19 +8441,19 @@
         <v>149875</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>137322</v>
+        <v>137067</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>162809</v>
+        <v>163333</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.5682454480772687</v>
+        <v>0.5682454480772684</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.5206527574533442</v>
+        <v>0.5196868448600335</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.6172857569221872</v>
+        <v>0.6192705829354398</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>525</v>
@@ -8462,19 +8462,19 @@
         <v>305164</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>287189</v>
+        <v>284908</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>324191</v>
+        <v>325103</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.5709786239287562</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.5373479652122022</v>
+        <v>0.5330795126417385</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.6065805132333151</v>
+        <v>0.6082869877151301</v>
       </c>
     </row>
     <row r="20">
@@ -8491,19 +8491,19 @@
         <v>115418</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>100046</v>
+        <v>100869</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>129630</v>
+        <v>130964</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.4263584379725489</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.3695743682255934</v>
+        <v>0.3726121450623228</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.4788586342393144</v>
+        <v>0.483783641282267</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>172</v>
@@ -8512,19 +8512,19 @@
         <v>113875</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>100941</v>
+        <v>100417</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>126428</v>
+        <v>126683</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.4317545519227315</v>
+        <v>0.4317545519227312</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.3827142430778129</v>
+        <v>0.3807294170645606</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.4793472425466563</v>
+        <v>0.4803131551399666</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>306</v>
@@ -8533,19 +8533,19 @@
         <v>229293</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>210266</v>
+        <v>209354</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>247268</v>
+        <v>249549</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.4290213760712438</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.3934194867666844</v>
+        <v>0.3917130122848698</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.4626520347877979</v>
+        <v>0.4669204873582616</v>
       </c>
     </row>
     <row r="21">
@@ -8637,19 +8637,19 @@
         <v>236790</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>209305</v>
+        <v>210624</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>266809</v>
+        <v>265961</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3290185770755836</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2908284269552631</v>
+        <v>0.2926608065749013</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3707294607433635</v>
+        <v>0.3695506090417543</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>395</v>
@@ -8658,19 +8658,19 @@
         <v>310667</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>285311</v>
+        <v>284715</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>335645</v>
+        <v>336150</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.4023883177472032</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3695461064166645</v>
+        <v>0.36877403274669</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.4347407435518142</v>
+        <v>0.4353954454265596</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>604</v>
@@ -8679,19 +8679,19 @@
         <v>547457</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>511610</v>
+        <v>509665</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>589061</v>
+        <v>585448</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.3669913203807338</v>
+        <v>0.3669913203807339</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.342961251427835</v>
+        <v>0.3416568608630973</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3948809282401083</v>
+        <v>0.3924584783868809</v>
       </c>
     </row>
     <row r="23">
@@ -8708,19 +8708,19 @@
         <v>482897</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>452878</v>
+        <v>453726</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>510382</v>
+        <v>509063</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.6709814229244164</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.6292705392566363</v>
+        <v>0.6304493909582457</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.709171573044737</v>
+        <v>0.7073391934250987</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>565</v>
@@ -8729,19 +8729,19 @@
         <v>461390</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>436412</v>
+        <v>435907</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>486746</v>
+        <v>487342</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.5976116822527967</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.565259256448186</v>
+        <v>0.5646045545734405</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.6304538935833356</v>
+        <v>0.63122596725331</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>955</v>
@@ -8750,19 +8750,19 @@
         <v>944287</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>902683</v>
+        <v>906296</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>980134</v>
+        <v>982079</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.6330086796192661</v>
+        <v>0.6330086796192663</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.6051190717598914</v>
+        <v>0.607541521613119</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.6570387485721648</v>
+        <v>0.6583431391369025</v>
       </c>
     </row>
     <row r="24">
@@ -8854,19 +8854,19 @@
         <v>260054</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>233499</v>
+        <v>233613</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>288791</v>
+        <v>290906</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.32585235800447</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2925794414924624</v>
+        <v>0.2927214420780243</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3618608862127777</v>
+        <v>0.3645112597682468</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>528</v>
@@ -8875,19 +8875,19 @@
         <v>371616</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>346008</v>
+        <v>347939</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>399298</v>
+        <v>398416</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.447013345211409</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.4162098071412347</v>
+        <v>0.4185321856553982</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.4803117261896726</v>
+        <v>0.4792501862203101</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>817</v>
@@ -8896,19 +8896,19 @@
         <v>631670</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>594710</v>
+        <v>592732</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>670363</v>
+        <v>668718</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.3876694270555384</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.3649861481375056</v>
+        <v>0.3637723263339164</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.4114160315050921</v>
+        <v>0.4104066486869384</v>
       </c>
     </row>
     <row r="26">
@@ -8925,19 +8925,19 @@
         <v>538018</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>509281</v>
+        <v>507166</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>564573</v>
+        <v>564459</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.6741476419955299</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.6381391137872224</v>
+        <v>0.6354887402317534</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.7074205585075377</v>
+        <v>0.7072785579219758</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>534</v>
@@ -8946,19 +8946,19 @@
         <v>459715</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>432033</v>
+        <v>432915</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>485323</v>
+        <v>483392</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.5529866547885911</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.5196882738103276</v>
+        <v>0.5207498137796895</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.5837901928587652</v>
+        <v>0.5814678143446017</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1007</v>
@@ -8967,19 +8967,19 @@
         <v>997733</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>959040</v>
+        <v>960685</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1034693</v>
+        <v>1036671</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.6123305729444617</v>
+        <v>0.6123305729444616</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.5885839684949079</v>
+        <v>0.5895933513130613</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.6350138518624943</v>
+        <v>0.6362276736660835</v>
       </c>
     </row>
     <row r="27">
@@ -9071,19 +9071,19 @@
         <v>1397982</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>1329984</v>
+        <v>1332900</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>1461028</v>
+        <v>1460978</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.3957193747553512</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.3764715311119881</v>
+        <v>0.3772969754943422</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.4135653995708038</v>
+        <v>0.4135511121450581</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>2700</v>
@@ -9092,19 +9092,19 @@
         <v>1728788</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>1676313</v>
+        <v>1671174</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>1781687</v>
+        <v>1782482</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.4626196595747554</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.4485774039721955</v>
+        <v>0.4472022786515296</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.4767751339296522</v>
+        <v>0.4769880657244705</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>4194</v>
@@ -9113,19 +9113,19 @@
         <v>3126771</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>3046216</v>
+        <v>3039434</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>3215947</v>
+        <v>3215205</v>
       </c>
       <c r="U28" s="6" t="n">
-        <v>0.430109066940141</v>
+        <v>0.4301090669401409</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.4190281585896568</v>
+        <v>0.4180952934597718</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.4423758749349641</v>
+        <v>0.4422737715511155</v>
       </c>
     </row>
     <row r="29">
@@ -9142,19 +9142,19 @@
         <v>2134780</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>2071734</v>
+        <v>2071784</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>2202778</v>
+        <v>2199862</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.604280625244649</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.5864346004291962</v>
+        <v>0.5864488878549418</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.6235284688880118</v>
+        <v>0.6227030245056577</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>2667</v>
@@ -9163,19 +9163,19 @@
         <v>2008166</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>1955267</v>
+        <v>1954472</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>2060641</v>
+        <v>2065780</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.5373803404252445</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.5232248660703478</v>
+        <v>0.5230119342755294</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.5514225960278045</v>
+        <v>0.5527977213484703</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>4549</v>
@@ -9184,19 +9184,19 @@
         <v>4142945</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>4053769</v>
+        <v>4054511</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>4223500</v>
+        <v>4230282</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.5698909330598591</v>
+        <v>0.5698909330598588</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.5576241250650359</v>
+        <v>0.5577262284488845</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.5809718414103436</v>
+        <v>0.5819047065402284</v>
       </c>
     </row>
     <row r="30">
